--- a/mosfl_indicators/test.xlsx
+++ b/mosfl_indicators/test.xlsx
@@ -846,11 +846,11 @@
     <row r="3" ht="13.8" customHeight="1" s="34">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>CEAT Limited</t>
+          <t>Just Dial Limited</t>
         </is>
       </c>
       <c r="B3" s="39" t="n">
-        <v>1289.5</v>
+        <v>798.25</v>
       </c>
       <c r="C3" s="40" t="n">
         <v>26.5</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="F3" s="39" t="n">
-        <v>654.45</v>
+        <v>719.3</v>
       </c>
       <c r="G3" s="33" t="n">
         <v>88.02</v>
@@ -874,42 +874,36 @@
         </is>
       </c>
       <c r="B4" s="39" t="n">
-        <v>73.25</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C4" s="39" t="n">
         <v>26.36</v>
       </c>
       <c r="E4" s="33" t="inlineStr">
         <is>
-          <t>NLC India Limited</t>
+          <t>Balkrishna Industries Limited</t>
         </is>
       </c>
       <c r="F4" s="39" t="n">
-        <v>63.9</v>
+        <v>2176.95</v>
       </c>
       <c r="G4" s="39" t="n">
         <v>87.40000000000001</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="34">
-      <c r="A5" s="33" t="inlineStr">
-        <is>
-          <t>Procter &amp; Gamble Health Limited</t>
-        </is>
-      </c>
-      <c r="B5" s="33" t="n">
-        <v>5780.65</v>
-      </c>
+      <c r="A5" s="33" t="inlineStr"/>
+      <c r="B5" s="33" t="inlineStr"/>
       <c r="C5" s="39" t="n">
         <v>29.9</v>
       </c>
       <c r="E5" s="33" t="inlineStr">
         <is>
-          <t>NMDC Limited</t>
+          <t>Birla Corporation Limited</t>
         </is>
       </c>
       <c r="F5" s="40" t="n">
-        <v>202.95</v>
+        <v>1252.75</v>
       </c>
       <c r="G5" s="40" t="n">
         <v>83.91</v>
@@ -964,7 +958,7 @@
     <row r="10" ht="13.8" customHeight="1" s="34">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>Sundaram Finance Limited</t>
+          <t>JSW Steel Limited</t>
         </is>
       </c>
       <c r="B10" s="33" t="inlineStr">
@@ -973,11 +967,11 @@
         </is>
       </c>
       <c r="C10" s="39" t="n">
-        <v>2406.8</v>
+        <v>694.5</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
-          <t>Angel Broking Limited</t>
+          <t>Page Industries Limited</t>
         </is>
       </c>
       <c r="F10" s="33" t="inlineStr">
@@ -986,13 +980,13 @@
         </is>
       </c>
       <c r="G10" s="39" t="n">
-        <v>654.45</v>
+        <v>29634.75</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="34">
       <c r="A11" s="33" t="inlineStr">
         <is>
-          <t>Tata Elxsi Limited</t>
+          <t>Aarti Industries Limited</t>
         </is>
       </c>
       <c r="B11" s="33" t="inlineStr">
@@ -1001,39 +995,27 @@
         </is>
       </c>
       <c r="C11" s="39" t="n">
-        <v>3522.25</v>
-      </c>
-      <c r="E11" s="42" t="inlineStr">
-        <is>
-          <t>Linde India Limited</t>
-        </is>
-      </c>
+        <v>1701.6</v>
+      </c>
+      <c r="E11" s="42" t="inlineStr"/>
       <c r="F11" s="33" t="inlineStr">
         <is>
           <t>Bearish Engulfing</t>
         </is>
       </c>
-      <c r="G11" s="39" t="n">
-        <v>1745.3</v>
-      </c>
+      <c r="G11" s="39" t="inlineStr"/>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="34">
-      <c r="A12" s="33" t="inlineStr">
-        <is>
-          <t>Birla Corporation Limited</t>
-        </is>
-      </c>
+      <c r="A12" s="33" t="inlineStr"/>
       <c r="B12" s="33" t="inlineStr">
         <is>
           <t>Bullish Marubozu</t>
         </is>
       </c>
-      <c r="C12" s="33" t="n">
-        <v>1042.95</v>
-      </c>
+      <c r="C12" s="33" t="inlineStr"/>
       <c r="E12" s="42" t="inlineStr">
         <is>
-          <t>Bharat Dynamics Limited</t>
+          <t>Indian Oil Corporation Limited</t>
         </is>
       </c>
       <c r="F12" s="33" t="inlineStr">
@@ -1042,7 +1024,7 @@
         </is>
       </c>
       <c r="G12" s="39" t="n">
-        <v>348.55</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="34">
@@ -1566,49 +1548,49 @@
     <row r="41" ht="13.8" customHeight="1" s="34">
       <c r="A41" s="33" t="inlineStr">
         <is>
-          <t>Adani Transmission Limited</t>
+          <t>Angel Broking Limited</t>
         </is>
       </c>
       <c r="B41" s="33" t="n">
-        <v>1203.55</v>
+        <v>719.3</v>
       </c>
       <c r="C41" s="39" t="n">
-        <v>1222</v>
+        <v>719.3</v>
       </c>
       <c r="D41" s="39" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="F41" s="41" t="n"/>
       <c r="G41" s="33" t="inlineStr">
         <is>
-          <t>Bata India Limited</t>
+          <t>Future Retail Limited</t>
         </is>
       </c>
       <c r="H41" s="39" t="n">
-        <v>1348.75</v>
+        <v>45.15</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>1213.8</v>
+        <v>40.55</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>2.4</v>
+        <v>11.34401972872997</v>
       </c>
       <c r="K41" s="64" t="n"/>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="34">
       <c r="A42" s="33" t="inlineStr">
         <is>
-          <t>Birla Corporation Limited</t>
+          <t>Asian Paints Limited</t>
         </is>
       </c>
       <c r="B42" s="39" t="n">
-        <v>1042.95</v>
+        <v>2794.1</v>
       </c>
       <c r="C42" s="39" t="n">
-        <v>1050</v>
+        <v>2873.45</v>
       </c>
       <c r="D42" s="39" t="n">
-        <v>0</v>
+        <v>-2.761488802658822</v>
       </c>
       <c r="F42" s="41" t="n"/>
       <c r="G42" s="33" t="inlineStr">
@@ -1617,30 +1599,30 @@
         </is>
       </c>
       <c r="H42" s="39" t="n">
-        <v>857.25</v>
+        <v>893.45</v>
       </c>
       <c r="I42" s="39" t="n">
         <v>841.5</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>5.6</v>
+        <v>6.173499702911474</v>
       </c>
       <c r="K42" s="64" t="n"/>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="34">
       <c r="A43" s="33" t="inlineStr">
         <is>
-          <t>Dalmia Bharat Limited</t>
+          <t>Atul Limited</t>
         </is>
       </c>
       <c r="B43" s="39" t="n">
-        <v>1700.75</v>
+        <v>8519.85</v>
       </c>
       <c r="C43" s="39" t="n">
-        <v>1743.6</v>
+        <v>8610</v>
       </c>
       <c r="D43" s="39" t="n">
-        <v>-0.3</v>
+        <v>-1.047038327526128</v>
       </c>
       <c r="F43" s="41" t="n"/>
       <c r="G43" s="33" t="inlineStr">
@@ -1649,31 +1631,25 @@
         </is>
       </c>
       <c r="H43" s="39" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>220</v>
+        <v>223.1</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>14.5</v>
+        <v>9.816225907664727</v>
       </c>
       <c r="K43" s="64" t="n"/>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="34">
       <c r="A44" s="33" t="inlineStr">
         <is>
-          <t>UPL Limited</t>
-        </is>
-      </c>
-      <c r="B44" s="39" t="n">
-        <v>691.65</v>
-      </c>
-      <c r="C44" s="39" t="n">
-        <v>702.55</v>
-      </c>
-      <c r="D44" s="39" t="n">
-        <v>-1</v>
-      </c>
+          <t>Bharat Electronincs Limited</t>
+        </is>
+      </c>
+      <c r="B44" s="39" t="inlineStr"/>
+      <c r="C44" s="39" t="inlineStr"/>
+      <c r="D44" s="39" t="inlineStr"/>
       <c r="F44" s="41" t="n"/>
       <c r="G44" s="33" t="inlineStr">
         <is>
@@ -1681,13 +1657,13 @@
         </is>
       </c>
       <c r="H44" s="39" t="n">
-        <v>7749.4</v>
+        <v>7781.95</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>6750</v>
+        <v>7424</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>4.821524784482756</v>
       </c>
       <c r="K44" s="35" t="n"/>
     </row>
